--- a/tests/test_xls/sheet_txns/test_select/test_select_like/test_select_like_memo/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns/test_select/test_select_like/test_select_like_memo/expected_result.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -452,7 +452,7 @@
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -536,26 +536,26 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43108</v>
+        <v>43182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>OTC</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-252.64</v>
+        <v>-484.39</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Memo 11</t>
+          <t>Memo 14</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -586,22 +586,22 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43278</v>
+        <v>43262</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pets</t>
+          <t>Dining Out</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
-        <v>-684.53</v>
+        <v>-727.42</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Memo 16</t>
+          <t>Memo 10</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -632,26 +632,26 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43307</v>
+        <v>43262</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Pharmacy</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grocery Store</t>
+          <t>General</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="3" t="n">
-        <v>-379.16</v>
+        <v>-435.61</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -660,12 +660,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Memo 10</t>
+          <t>Memo 18</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -682,7 +682,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>43498</v>
+        <v>43337</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" s="3" t="n">
-        <v>-73.52</v>
+        <v>-969.25</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Memo 11</t>
+          <t>Memo 15</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -732,22 +732,26 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>43581</v>
+        <v>43352</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" s="3" t="n">
-        <v>-895.9</v>
+        <v>-515.3</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -761,7 +765,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Memo 19</t>
+          <t>Memo 1</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -778,26 +782,26 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>43770</v>
+        <v>43460</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Pharmacy</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grocery Store</t>
+          <t>General</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" s="3" t="n">
-        <v>-749.51</v>
+        <v>-359.77</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -806,12 +810,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Memo 17</t>
+          <t>Memo 16</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
@@ -828,26 +832,26 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>43787</v>
+        <v>43522</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>Neighborhood Market</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>OTC</t>
+          <t>Farmer's Market</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" s="3" t="n">
-        <v>-359.43</v>
+        <v>-11.3</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -856,12 +860,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Memo 14</t>
+          <t>Memo 12</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -878,26 +882,26 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>43878</v>
+        <v>43987</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>Neighborhood Market</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Farmer's Market</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" s="3" t="n">
-        <v>-182.67</v>
+        <v>-157</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -906,12 +910,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Memo 11</t>
+          <t>Memo 16</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -928,11 +932,11 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>44046</v>
+        <v>44031</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Wendy's</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -943,7 +947,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" s="3" t="n">
-        <v>-877.3099999999999</v>
+        <v>-671.97</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -957,7 +961,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Memo 19</t>
+          <t>Memo 10</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -974,22 +978,26 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>44070</v>
+        <v>44045</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" s="3" t="n">
-        <v>-588.6799999999999</v>
+        <v>-323.35</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1020,11 +1028,11 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>44103</v>
+        <v>44333</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1034,12 +1042,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>OTC</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" s="3" t="n">
-        <v>-397.49</v>
+        <v>-512.08</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1060,7 +1068,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Era B</t>
+          <t>Era A</t>
         </is>
       </c>
     </row>
@@ -1070,11 +1078,11 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>44272</v>
+        <v>44365</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1084,12 +1092,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>OTC</t>
+          <t>General</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" s="3" t="n">
-        <v>-615.01</v>
+        <v>-510.19</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1103,7 +1111,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Memo 16</t>
+          <t>Memo 15</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1120,26 +1128,22 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>44332</v>
+        <v>44586</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" s="3" t="n">
-        <v>-563.66</v>
+        <v>-190.15</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1153,7 +1157,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Memo 14</t>
+          <t>Memo 18</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1170,26 +1174,22 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>44529</v>
+        <v>44678</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Farmer's Market</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" s="3" t="n">
-        <v>-137.44</v>
+        <v>-824.97</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Memo 17</t>
+          <t>Memo 11</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1220,26 +1220,22 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>44734</v>
+        <v>44716</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Farmer's Market</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" s="3" t="n">
-        <v>-696.3</v>
+        <v>-86.45999999999999</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1248,67 +1244,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Memo 18</t>
+          <t>Memo 14</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
-        <is>
-          <t>Era A</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" s="2" t="n">
-        <v>44836</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>CVS</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" s="3" t="n">
-        <v>-610.62</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Expense</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Memo 19</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
         <is>
           <t>Era A</t>
         </is>
@@ -1325,7 +1271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1346,7 +1292,7 @@
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -1430,22 +1376,26 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43267</v>
+        <v>43109</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-981.84</v>
+        <v>336.88</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1459,7 +1409,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Memo 20</t>
+          <t>Refund of 01/06/2018</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -1476,11 +1426,11 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43322</v>
+        <v>43243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1490,12 +1440,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
-        <v>-334.49</v>
+        <v>4.27</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1509,7 +1459,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Memo 6</t>
+          <t>Refund of 05/18/2018</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -1526,22 +1476,22 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43327</v>
+        <v>43369</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>The Vet</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dining Out</t>
+          <t>Pets</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="3" t="n">
-        <v>-227.67</v>
+        <v>-345.07</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1555,7 +1505,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Memo 3</t>
+          <t>Memo 6</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -1572,11 +1522,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>43343</v>
+        <v>43382</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1591,7 +1541,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" s="3" t="n">
-        <v>-237.48</v>
+        <v>-679.74</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1605,7 +1555,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Memo 20</t>
+          <t>Memo 2</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -1622,22 +1572,26 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>43344</v>
+        <v>43394</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" s="3" t="n">
-        <v>-240.71</v>
+        <v>-732.79</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1668,26 +1622,22 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>43559</v>
+        <v>43480</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>Wendy's</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Farmer's Market</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" s="3" t="n">
-        <v>-25.45</v>
+        <v>425.63</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1696,12 +1646,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Memo 8</t>
+          <t>Refund of 10/29/2018</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
@@ -1718,26 +1668,26 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>43655</v>
+        <v>43535</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Farmer's Market</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" s="3" t="n">
-        <v>-541.23</v>
+        <v>-637.78</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1746,12 +1696,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Memo 7</t>
+          <t>Memo 4</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -1768,26 +1718,26 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>43734</v>
+        <v>43575</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Grocery Store</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" s="3" t="n">
-        <v>-816.6900000000001</v>
+        <v>-842.29</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1796,12 +1746,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Memo 9</t>
+          <t>Memo 5</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -1818,26 +1768,26 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>44001</v>
+        <v>43917</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Grocery Store</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" s="3" t="n">
-        <v>-834.16</v>
+        <v>-723.89</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1846,12 +1796,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Memo 6</t>
+          <t>Memo 8</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1868,22 +1818,26 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>44030</v>
+        <v>43917</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" s="3" t="n">
-        <v>-814.63</v>
+        <v>-105.68</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1897,7 +1851,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Memo 5</t>
+          <t>Memo 20</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1914,7 +1868,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>44191</v>
+        <v>43933</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1929,7 +1883,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" s="3" t="n">
-        <v>-663.42</v>
+        <v>187.76</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1943,7 +1897,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Memo 6</t>
+          <t>Refund of 03/26/2020</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1960,22 +1914,26 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>44297</v>
+        <v>43971</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" s="3" t="n">
-        <v>-46.78</v>
+        <v>-596.88</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1989,14 +1947,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Memo 3</t>
+          <t>Memo 9</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -2006,26 +1964,26 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>44334</v>
+        <v>43999</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" s="3" t="n">
-        <v>-398.14</v>
+        <v>858.9400000000001</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -2039,14 +1997,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Memo 4</t>
+          <t>Refund of 04/20/2020</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -2056,26 +2014,22 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>44526</v>
+        <v>44016</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>The Vet</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
+          <t>Pets</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" s="3" t="n">
-        <v>-189.63</v>
+        <v>-538.1900000000001</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -2089,14 +2043,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Memo 20</t>
+          <t>Memo 7</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -2106,22 +2060,26 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>44534</v>
+        <v>44039</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" s="3" t="n">
-        <v>-817.35</v>
+        <v>-542.77</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -2135,14 +2093,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Memo 9</t>
+          <t>Memo 8</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -2152,26 +2110,22 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
-        <v>44580</v>
+        <v>44065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" s="3" t="n">
-        <v>-732.71</v>
+        <v>963.73</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -2185,14 +2139,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Memo 8</t>
+          <t>Refund of 08/20/2020</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2156,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
-        <v>44615</v>
+        <v>44116</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2221,7 +2175,7 @@
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" s="3" t="n">
-        <v>-25.14</v>
+        <v>-326.19</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2235,14 +2189,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Memo 7</t>
+          <t>Memo 6</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -2252,26 +2206,26 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
-        <v>44679</v>
+        <v>44157</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Neighborhood Market</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Farmer's Market</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" s="3" t="n">
-        <v>-696.15</v>
+        <v>101.54</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2280,19 +2234,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Memo 9</t>
+          <t>Refund of 09/09/2020</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -2302,26 +2256,22 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
-        <v>44727</v>
+        <v>44293</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" s="3" t="n">
-        <v>-293.83</v>
+        <v>-382.72</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2335,7 +2285,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Memo 7</t>
+          <t>Memo 20</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -2352,22 +2302,26 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>44850</v>
+        <v>44318</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" s="3" t="n">
-        <v>-381.61</v>
+        <v>580.1900000000001</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2381,7 +2335,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Memo 5</t>
+          <t>Refund of 03/08/2021</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -2398,7 +2352,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>44915</v>
+        <v>44394</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2417,7 +2371,7 @@
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" s="3" t="n">
-        <v>-290.16</v>
+        <v>-870.4</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2431,12 +2385,796 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Memo 2</t>
+          <t>Memo 3</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>McDonald's</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" s="3" t="n">
+        <v>686.11</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Refund of 11/11/2021</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" s="2" t="n">
+        <v>44565</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" s="3" t="n">
+        <v>56.89</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Refund of 01/01/2022</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" s="2" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Neighborhood Market</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Farmer's Market</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" s="3" t="n">
+        <v>-376.22</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Memo 6</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>The Vet</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pets</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" s="3" t="n">
+        <v>-116.02</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Memo 5</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Neighborhood Market</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Farmer's Market</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" s="3" t="n">
+        <v>758.83</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Refund of 01/24/2022</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" s="3" t="n">
+        <v>716.59</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Refund of 02/18/2022</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" s="3" t="n">
+        <v>-221.73</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Memo 5</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" s="3" t="n">
+        <v>942.1900000000001</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Refund of 04/27/2022</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" s="3" t="n">
+        <v>450.81</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Refund of 06/03/2022</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" s="2" t="n">
+        <v>44825</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" s="3" t="n">
+        <v>-421.72</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Memo 4</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" s="2" t="n">
+        <v>44854</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" s="3" t="n">
+        <v>835.98</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Refund of 10/10/2022</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" s="2" t="n">
+        <v>44856</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" s="3" t="n">
+        <v>271.76</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Refund of 08/23/2022</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Wendy's</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" s="3" t="n">
+        <v>-142.77</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Memo 3</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Wendy's</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" s="3" t="n">
+        <v>110.87</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Refund of 10/26/2022</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" s="2" t="n">
+        <v>44867</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" s="3" t="n">
+        <v>-863.77</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Memo 5</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" s="3" t="n">
+        <v>390.31</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Refund of 11/17/2022</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
         <is>
           <t>Era A</t>
         </is>
@@ -2453,7 +3191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2474,7 +3212,7 @@
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -2558,22 +3296,26 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43267</v>
+        <v>43109</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-981.84</v>
+        <v>336.88</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -2587,7 +3329,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Memo 20</t>
+          <t>Refund of 01/06/2018</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -2604,11 +3346,11 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43322</v>
+        <v>43243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2618,12 +3360,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
-        <v>-334.49</v>
+        <v>4.27</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -2637,7 +3379,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Memo 6</t>
+          <t>Refund of 05/18/2018</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -2654,22 +3396,22 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43327</v>
+        <v>43369</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>The Vet</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dining Out</t>
+          <t>Pets</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="3" t="n">
-        <v>-227.67</v>
+        <v>-345.07</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -2683,7 +3425,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Memo 3</t>
+          <t>Memo 6</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -2700,11 +3442,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>43343</v>
+        <v>43382</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2719,7 +3461,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" s="3" t="n">
-        <v>-237.48</v>
+        <v>-679.74</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -2733,7 +3475,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Memo 20</t>
+          <t>Memo 2</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -2750,22 +3492,26 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>43344</v>
+        <v>43394</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" s="3" t="n">
-        <v>-240.71</v>
+        <v>-732.79</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -2796,26 +3542,22 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>43559</v>
+        <v>43480</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>Wendy's</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Farmer's Market</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" s="3" t="n">
-        <v>-25.45</v>
+        <v>425.63</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -2824,12 +3566,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Memo 8</t>
+          <t>Refund of 10/29/2018</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
@@ -2846,26 +3588,26 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>43655</v>
+        <v>43535</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Farmer's Market</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" s="3" t="n">
-        <v>-541.23</v>
+        <v>-637.78</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2874,12 +3616,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Memo 7</t>
+          <t>Memo 4</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -2896,26 +3638,26 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>43734</v>
+        <v>43575</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Grocery Store</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" s="3" t="n">
-        <v>-816.6900000000001</v>
+        <v>-842.29</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -2924,12 +3666,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Memo 9</t>
+          <t>Memo 5</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -2946,26 +3688,26 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>44001</v>
+        <v>43917</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Grocery Store</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" s="3" t="n">
-        <v>-834.16</v>
+        <v>-723.89</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -2974,12 +3716,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Memo 6</t>
+          <t>Memo 8</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -2996,22 +3738,26 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>44030</v>
+        <v>43917</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" s="3" t="n">
-        <v>-814.63</v>
+        <v>-105.68</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -3025,7 +3771,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Memo 5</t>
+          <t>Memo 20</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -3042,7 +3788,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>44191</v>
+        <v>43933</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -3057,7 +3803,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" s="3" t="n">
-        <v>-663.42</v>
+        <v>187.76</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -3071,7 +3817,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Memo 6</t>
+          <t>Refund of 03/26/2020</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -3088,22 +3834,26 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>44297</v>
+        <v>43971</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" s="3" t="n">
-        <v>-46.78</v>
+        <v>-596.88</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -3117,14 +3867,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Memo 3</t>
+          <t>Memo 9</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3134,26 +3884,26 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>44334</v>
+        <v>43999</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" s="3" t="n">
-        <v>-398.14</v>
+        <v>858.9400000000001</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -3167,14 +3917,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Memo 4</t>
+          <t>Refund of 04/20/2020</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3184,26 +3934,22 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>44526</v>
+        <v>44016</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>The Vet</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
+          <t>Pets</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" s="3" t="n">
-        <v>-189.63</v>
+        <v>-538.1900000000001</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -3217,14 +3963,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Memo 20</t>
+          <t>Memo 7</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3234,22 +3980,26 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>44534</v>
+        <v>44039</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" s="3" t="n">
-        <v>-817.35</v>
+        <v>-542.77</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -3263,14 +4013,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Memo 9</t>
+          <t>Memo 8</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3280,26 +4030,22 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
-        <v>44580</v>
+        <v>44065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" s="3" t="n">
-        <v>-732.71</v>
+        <v>963.73</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -3313,14 +4059,14 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Memo 8</t>
+          <t>Refund of 08/20/2020</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3330,7 +4076,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
-        <v>44615</v>
+        <v>44116</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -3349,7 +4095,7 @@
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" s="3" t="n">
-        <v>-25.14</v>
+        <v>-326.19</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -3363,14 +4109,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Memo 7</t>
+          <t>Memo 6</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3380,26 +4126,26 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
-        <v>44679</v>
+        <v>44157</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Neighborhood Market</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Farmer's Market</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" s="3" t="n">
-        <v>-696.15</v>
+        <v>101.54</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -3408,19 +4154,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Memo 9</t>
+          <t>Refund of 09/09/2020</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3430,26 +4176,22 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
-        <v>44727</v>
+        <v>44293</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" s="3" t="n">
-        <v>-293.83</v>
+        <v>-382.72</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -3463,7 +4205,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Memo 7</t>
+          <t>Memo 20</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -3480,22 +4222,26 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>44850</v>
+        <v>44318</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" s="3" t="n">
-        <v>-381.61</v>
+        <v>580.1900000000001</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -3509,7 +4255,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Memo 5</t>
+          <t>Refund of 03/08/2021</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -3526,7 +4272,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>44915</v>
+        <v>44394</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3545,7 +4291,7 @@
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" s="3" t="n">
-        <v>-290.16</v>
+        <v>-870.4</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -3559,12 +4305,796 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Memo 2</t>
+          <t>Memo 3</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" s="2" t="n">
+        <v>44515</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>McDonald's</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" s="3" t="n">
+        <v>686.11</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Refund of 11/11/2021</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" s="2" t="n">
+        <v>44565</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" s="3" t="n">
+        <v>56.89</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Refund of 01/01/2022</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" s="2" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Neighborhood Market</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Farmer's Market</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" s="3" t="n">
+        <v>-376.22</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Memo 6</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>The Vet</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pets</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" s="3" t="n">
+        <v>-116.02</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Memo 5</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Neighborhood Market</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Farmer's Market</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" s="3" t="n">
+        <v>758.83</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Refund of 01/24/2022</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" s="3" t="n">
+        <v>716.59</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Refund of 02/18/2022</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" s="3" t="n">
+        <v>-221.73</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Memo 5</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" s="3" t="n">
+        <v>942.1900000000001</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Refund of 04/27/2022</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" s="3" t="n">
+        <v>450.81</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Refund of 06/03/2022</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" s="2" t="n">
+        <v>44825</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" s="3" t="n">
+        <v>-421.72</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Memo 4</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" s="2" t="n">
+        <v>44854</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" s="3" t="n">
+        <v>835.98</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Refund of 10/10/2022</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" s="2" t="n">
+        <v>44856</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" s="3" t="n">
+        <v>271.76</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Refund of 08/23/2022</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Wendy's</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" s="3" t="n">
+        <v>-142.77</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Memo 3</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Wendy's</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" s="3" t="n">
+        <v>110.87</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Refund of 10/26/2022</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" s="2" t="n">
+        <v>44867</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" s="3" t="n">
+        <v>-863.77</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Memo 5</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" s="3" t="n">
+        <v>390.31</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Refund of 11/17/2022</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
         <is>
           <t>Era A</t>
         </is>
@@ -3581,7 +5111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3602,7 +5132,7 @@
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -3686,26 +5216,22 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43108</v>
+        <v>43262</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-252.64</v>
+        <v>-727.42</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -3719,7 +5245,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Memo 11</t>
+          <t>Memo 10</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -3736,22 +5262,26 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43267</v>
+        <v>43917</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
-        <v>-981.84</v>
+        <v>-105.68</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -3772,7 +5302,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Era C</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3782,26 +5312,22 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43307</v>
+        <v>44031</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>Wendy's</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Grocery Store</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="3" t="n">
-        <v>-379.16</v>
+        <v>-671.97</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -3810,7 +5336,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -3822,7 +5348,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Era C</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -3832,26 +5358,22 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>43343</v>
+        <v>44293</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" s="3" t="n">
-        <v>-237.48</v>
+        <v>-382.72</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -3872,7 +5394,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Era C</t>
+          <t>Era A</t>
         </is>
       </c>
     </row>
@@ -3882,26 +5404,22 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>43498</v>
+        <v>44678</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Grocery Store</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" s="3" t="n">
-        <v>-73.52</v>
+        <v>-824.97</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -3910,7 +5428,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -3921,106 +5439,6 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
-        <is>
-          <t>Era C</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" s="2" t="n">
-        <v>43878</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Walgreens</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" s="3" t="n">
-        <v>-182.67</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Expense</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Memo 11</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Era B</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" s="2" t="n">
-        <v>44526</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Target</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" s="3" t="n">
-        <v>-189.63</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Expense</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Memo 20</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
         <is>
           <t>Era A</t>
         </is>
@@ -4037,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4058,7 +5476,7 @@
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -4142,26 +5560,22 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43108</v>
+        <v>43262</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-252.64</v>
+        <v>-727.42</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -4175,7 +5589,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Memo 11</t>
+          <t>Memo 10</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -4192,22 +5606,26 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43267</v>
+        <v>43917</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
-        <v>-981.84</v>
+        <v>-105.68</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -4228,7 +5646,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Era C</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -4238,26 +5656,22 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43307</v>
+        <v>44031</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>Wendy's</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Grocery Store</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="3" t="n">
-        <v>-379.16</v>
+        <v>-671.97</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -4266,7 +5680,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -4278,7 +5692,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Era C</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -4288,26 +5702,22 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>43343</v>
+        <v>44293</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" s="3" t="n">
-        <v>-237.48</v>
+        <v>-382.72</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -4328,7 +5738,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Era C</t>
+          <t>Era A</t>
         </is>
       </c>
     </row>
@@ -4338,26 +5748,22 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>43498</v>
+        <v>44678</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Grocery Store</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" s="3" t="n">
-        <v>-73.52</v>
+        <v>-824.97</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -4366,7 +5772,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -4377,106 +5783,6 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
-        <is>
-          <t>Era C</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" s="2" t="n">
-        <v>43878</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Walgreens</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" s="3" t="n">
-        <v>-182.67</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Expense</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Memo 11</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Era B</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" s="2" t="n">
-        <v>44526</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Target</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" s="3" t="n">
-        <v>-189.63</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Expense</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Discretionary</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Memo 20</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
         <is>
           <t>Era A</t>
         </is>
@@ -4493,7 +5799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4514,7 +5820,7 @@
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="4" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -4598,22 +5904,26 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43278</v>
+        <v>43109</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="3" t="n">
-        <v>-684.53</v>
+        <v>336.88</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -4627,7 +5937,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Memo 16</t>
+          <t>Refund of 01/06/2018</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -4644,11 +5954,11 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43322</v>
+        <v>43182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4658,12 +5968,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="3" t="n">
-        <v>-334.49</v>
+        <v>-484.39</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -4677,7 +5987,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Memo 6</t>
+          <t>Memo 14</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -4694,22 +6004,26 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43327</v>
+        <v>43243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="3" t="n">
-        <v>-227.67</v>
+        <v>4.27</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -4723,7 +6037,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Memo 3</t>
+          <t>Refund of 05/18/2018</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -4740,22 +6054,26 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>43344</v>
+        <v>43262</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" s="3" t="n">
-        <v>-240.71</v>
+        <v>-435.61</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -4769,7 +6087,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Memo 4</t>
+          <t>Memo 18</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -4786,11 +6104,11 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>43559</v>
+        <v>43337</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4800,12 +6118,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Farmer's Market</t>
+          <t>Grocery Store</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" s="3" t="n">
-        <v>-25.45</v>
+        <v>-969.25</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -4819,7 +6137,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Memo 8</t>
+          <t>Memo 15</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -4836,22 +6154,26 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>43581</v>
+        <v>43352</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" s="3" t="n">
-        <v>-895.9</v>
+        <v>-515.3</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -4865,7 +6187,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Memo 19</t>
+          <t>Memo 1</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
@@ -4882,26 +6204,22 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>43655</v>
+        <v>43369</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>The Vet</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Farmer's Market</t>
-        </is>
-      </c>
+          <t>Pets</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" s="3" t="n">
-        <v>-541.23</v>
+        <v>-345.07</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -4910,12 +6228,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Memo 7</t>
+          <t>Memo 6</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -4932,11 +6250,11 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>43734</v>
+        <v>43382</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -4946,12 +6264,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" s="3" t="n">
-        <v>-816.6900000000001</v>
+        <v>-679.74</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -4965,7 +6283,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Memo 9</t>
+          <t>Memo 2</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -4982,26 +6300,26 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>43770</v>
+        <v>43394</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grocery Store</t>
+          <t>Household</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" s="3" t="n">
-        <v>-749.51</v>
+        <v>-732.79</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -5010,12 +6328,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Memo 17</t>
+          <t>Memo 4</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -5032,11 +6350,11 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>43787</v>
+        <v>43460</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -5046,12 +6364,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>OTC</t>
+          <t>General</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" s="3" t="n">
-        <v>-359.43</v>
+        <v>-359.77</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -5065,7 +6383,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Memo 14</t>
+          <t>Memo 16</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -5082,26 +6400,22 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>44001</v>
+        <v>43480</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>Wendy's</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" s="3" t="n">
-        <v>-834.16</v>
+        <v>425.63</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -5115,14 +6429,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Memo 6</t>
+          <t>Refund of 10/29/2018</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Era B</t>
+          <t>Era C</t>
         </is>
       </c>
     </row>
@@ -5132,22 +6446,26 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" s="2" t="n">
-        <v>44030</v>
+        <v>43522</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Neighborhood Market</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Farmer's Market</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" s="3" t="n">
-        <v>-814.63</v>
+        <v>-11.3</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -5156,19 +6474,19 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Memo 5</t>
+          <t>Memo 12</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Era B</t>
+          <t>Era C</t>
         </is>
       </c>
     </row>
@@ -5178,22 +6496,26 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" s="2" t="n">
-        <v>44046</v>
+        <v>43535</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" s="3" t="n">
-        <v>-877.3099999999999</v>
+        <v>-637.78</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -5207,14 +6529,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Memo 19</t>
+          <t>Memo 4</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Era B</t>
+          <t>Era C</t>
         </is>
       </c>
     </row>
@@ -5224,22 +6546,26 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="2" t="n">
-        <v>44070</v>
+        <v>43575</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wendy's</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Grocery Store</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" s="3" t="n">
-        <v>-588.6799999999999</v>
+        <v>-842.29</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -5248,19 +6574,19 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Memo 15</t>
+          <t>Memo 5</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Era B</t>
+          <t>Era C</t>
         </is>
       </c>
     </row>
@@ -5270,26 +6596,26 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" s="2" t="n">
-        <v>44103</v>
+        <v>43917</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Grocery Store</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" s="3" t="n">
-        <v>-397.49</v>
+        <v>-723.89</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -5298,12 +6624,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Memo 12</t>
+          <t>Memo 8</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -5320,7 +6646,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" s="2" t="n">
-        <v>44191</v>
+        <v>43933</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -5335,7 +6661,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" s="3" t="n">
-        <v>-663.42</v>
+        <v>187.76</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -5349,7 +6675,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Memo 6</t>
+          <t>Refund of 03/26/2020</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -5366,11 +6692,11 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" s="2" t="n">
-        <v>44272</v>
+        <v>43971</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -5380,12 +6706,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>OTC</t>
+          <t>General</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" s="3" t="n">
-        <v>-615.01</v>
+        <v>-596.88</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -5399,14 +6725,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Memo 16</t>
+          <t>Memo 9</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -5416,22 +6742,26 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" s="2" t="n">
-        <v>44297</v>
+        <v>43987</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Neighborhood Market</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Farmer's Market</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" s="3" t="n">
-        <v>-46.78</v>
+        <v>-157</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -5440,19 +6770,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Memo 3</t>
+          <t>Memo 16</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -5462,11 +6792,11 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" s="2" t="n">
-        <v>44332</v>
+        <v>43999</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5476,12 +6806,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" s="3" t="n">
-        <v>-563.66</v>
+        <v>858.9400000000001</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -5495,14 +6825,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Memo 14</t>
+          <t>Refund of 04/20/2020</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -5512,26 +6842,22 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" s="2" t="n">
-        <v>44334</v>
+        <v>44016</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>The Vet</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
+          <t>Pets</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" s="3" t="n">
-        <v>-398.14</v>
+        <v>-538.1900000000001</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -5545,14 +6871,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Memo 4</t>
+          <t>Memo 7</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -5562,26 +6888,26 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" s="2" t="n">
-        <v>44529</v>
+        <v>44039</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Farmer's Market</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" s="3" t="n">
-        <v>-137.44</v>
+        <v>-542.77</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -5590,19 +6916,19 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Memo 17</t>
+          <t>Memo 8</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -5612,22 +6938,26 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" s="2" t="n">
-        <v>44534</v>
+        <v>44045</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" s="3" t="n">
-        <v>-817.35</v>
+        <v>-323.35</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -5641,14 +6971,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Memo 9</t>
+          <t>Memo 15</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -5658,26 +6988,22 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" s="2" t="n">
-        <v>44580</v>
+        <v>44065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" s="3" t="n">
-        <v>-732.71</v>
+        <v>963.73</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -5691,14 +7017,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Memo 8</t>
+          <t>Refund of 08/20/2020</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -5708,7 +7034,7 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" s="2" t="n">
-        <v>44615</v>
+        <v>44116</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -5727,7 +7053,7 @@
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" s="3" t="n">
-        <v>-25.14</v>
+        <v>-326.19</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -5741,14 +7067,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Memo 7</t>
+          <t>Memo 6</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -5758,26 +7084,26 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" s="2" t="n">
-        <v>44679</v>
+        <v>44157</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Neighborhood Market</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Household</t>
+          <t>Farmer's Market</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" s="3" t="n">
-        <v>-696.15</v>
+        <v>101.54</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -5786,19 +7112,19 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Memo 9</t>
+          <t>Refund of 09/09/2020</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Era A</t>
+          <t>Era B</t>
         </is>
       </c>
     </row>
@@ -5808,11 +7134,11 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" s="2" t="n">
-        <v>44727</v>
+        <v>44318</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5827,7 +7153,7 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" s="3" t="n">
-        <v>-293.83</v>
+        <v>580.1900000000001</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -5841,7 +7167,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Memo 7</t>
+          <t>Refund of 03/08/2021</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -5858,26 +7184,26 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" s="2" t="n">
-        <v>44734</v>
+        <v>44333</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Neighborhood Market</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Pharmacy</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Farmer's Market</t>
+          <t>OTC</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" s="3" t="n">
-        <v>-696.3</v>
+        <v>-512.08</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -5886,12 +7212,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Memo 18</t>
+          <t>Memo 12</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -5908,11 +7234,11 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" s="2" t="n">
-        <v>44836</v>
+        <v>44365</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5922,12 +7248,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>OTC</t>
+          <t>General</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" s="3" t="n">
-        <v>-610.62</v>
+        <v>-510.19</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -5941,7 +7267,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Memo 19</t>
+          <t>Memo 15</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -5958,22 +7284,26 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" s="2" t="n">
-        <v>44850</v>
+        <v>44394</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>McDonald's</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Dining Out</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" s="3" t="n">
-        <v>-381.61</v>
+        <v>-870.4</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -5987,7 +7317,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Memo 5</t>
+          <t>Memo 3</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -6004,26 +7334,22 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" s="2" t="n">
-        <v>44915</v>
+        <v>44515</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Walgreens</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" s="3" t="n">
-        <v>-290.16</v>
+        <v>686.11</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -6037,12 +7363,842 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Memo 2</t>
+          <t>Refund of 11/11/2021</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" s="2" t="n">
+        <v>44565</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" s="3" t="n">
+        <v>56.89</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Refund of 01/01/2022</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" s="2" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Neighborhood Market</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Farmer's Market</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" s="3" t="n">
+        <v>-376.22</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Memo 6</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>The Vet</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Pets</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" s="3" t="n">
+        <v>-116.02</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Memo 5</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" s="2" t="n">
+        <v>44586</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>McDonald's</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" s="3" t="n">
+        <v>-190.15</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Memo 18</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Neighborhood Market</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Farmer's Market</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" s="3" t="n">
+        <v>758.83</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Essential</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Refund of 01/24/2022</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" s="3" t="n">
+        <v>716.59</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Refund of 02/18/2022</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" s="3" t="n">
+        <v>-221.73</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Memo 5</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" s="2" t="n">
+        <v>44716</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>McDonald's</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" s="3" t="n">
+        <v>-86.45999999999999</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Memo 14</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" s="3" t="n">
+        <v>942.1900000000001</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Refund of 04/27/2022</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" s="3" t="n">
+        <v>450.81</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Refund of 06/03/2022</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" s="2" t="n">
+        <v>44825</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" s="3" t="n">
+        <v>-421.72</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Memo 4</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" s="2" t="n">
+        <v>44854</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" s="3" t="n">
+        <v>835.98</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Refund of 10/10/2022</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" s="2" t="n">
+        <v>44856</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Household</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" s="3" t="n">
+        <v>271.76</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Refund of 08/23/2022</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Wendy's</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" s="3" t="n">
+        <v>-142.77</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Memo 3</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Wendy's</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" s="3" t="n">
+        <v>110.87</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Refund of 10/26/2022</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" s="2" t="n">
+        <v>44867</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Walgreens</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" s="3" t="n">
+        <v>-863.77</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Memo 5</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Era A</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" s="3" t="n">
+        <v>390.31</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Expense</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Discretionary</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Refund of 11/17/2022</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
         <is>
           <t>Era A</t>
         </is>
